--- a/mosip_master/xlsx/id_type.xlsx
+++ b/mosip_master/xlsx/id_type.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="76">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -149,6 +149,105 @@
   </si>
   <si>
     <t xml:space="preserve">المعرف المستخدم من قبل البائع لمقدم الطلب</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ವಿಶಿಷ್ಟ ಗುರುತಿನ ಸಂಖ್ಯೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅರ್ಜಿದಾರರಿಗೆ ನೀಡಲಾದ ರಾಷ್ಟ್ರೀಯ ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿ ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಪೂರ್ವ-ನೋಂದಣಿ ನಂತರ ID ನಿಯೋಜಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನೋಂದಣಿ ನಂತರ ID ನಿಯೋಜಿಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ಐಡಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UIN ಬದಲಿಗೆ ID ಬಳಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಟೋಕನ್ ಐಡಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅರ್ಜಿದಾರರಿಗೆ ಮಾರಾಟಗಾರರಿಂದ ID ಬಳಸಲಾಗಿದೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">विशिष्ट पहचान संख्या</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आवेदक को दी गई राष्ट्रीय पहचान पत्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्री-रजिस्ट्रेशन आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पूर्व-पंजीकरण के बाद दी गई आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीयन पहचान</t>
+  </si>
+  <si>
+    <t xml:space="preserve">पंजीकरण के बाद सौंपी गई आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">वर्चुअल आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">यूआईएन के स्थान पर उपयोग की जाने वाली आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">टोकन आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">एक आवेदक के लिए एक विक्रेता द्वारा उपयोग की जाने वाली आईडी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தனிப்பட்ட அடையாள எண்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">விண்ணப்பதாரருக்கு வழங்கப்பட்ட தேசிய அடையாள அட்டை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவு ஐடி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">முன் பதிவு செய்த பிறகு ஐடி ஒதுக்கப்படும்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு ஐடி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பதிவு செய்த பிறகு ஐடி ஒதுக்கப்பட்டது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் ஐடி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UINக்கு மாற்றாக ஐடி பயன்படுத்தப்பட்டது</t>
+  </si>
+  <si>
+    <t xml:space="preserve">டோக்கன் ஐடி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">விண்ணப்பதாரருக்கு விற்பனையாளர் பயன்படுத்தும் ஐடி</t>
   </si>
 </sst>
 </file>
@@ -281,10 +380,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13:D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,6 +667,261 @@
         <v>9</v>
       </c>
     </row>
+    <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/mosip_master/xlsx/id_type.xlsx
+++ b/mosip_master/xlsx/id_type.xlsx
@@ -154,7 +154,7 @@
     <t xml:space="preserve">kan</t>
   </si>
   <si>
-    <t xml:space="preserve"> ವಿಶಿಷ್ಟ ಗುರುತಿನ ಸಂಖ್ಯೆ</t>
+    <t xml:space="preserve">ವಿಶಿಷ್ಟ ಗುರುತಿನ ಸಂಖ್ಯೆ</t>
   </si>
   <si>
     <t xml:space="preserve">ಅರ್ಜಿದಾರರಿಗೆ ನೀಡಲಾದ ರಾಷ್ಟ್ರೀಯ ID</t>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
